--- a/codesystems/infosource.xlsx
+++ b/codesystems/infosource.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9D6E11-AD22-C040-A244-2CC2BB9D3F9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA650F-F708-254B-83E6-DF5A4DD08BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18180" yWindow="-19880" windowWidth="27640" windowHeight="16940" xr2:uid="{0A318148-68B7-0C40-BB6B-85AA9C69C951}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>MIGR</t>
   </si>
@@ -42,9 +42,6 @@
     <t>HL7</t>
   </si>
   <si>
-    <t>nzinfosource</t>
-  </si>
-  <si>
     <t>Information source</t>
   </si>
   <si>
@@ -120,13 +117,13 @@
     <t>New Zealand Resident Visa</t>
   </si>
   <si>
-    <t>https://standards.digital.health.nz/fhir/CodeSystem/nzinfosource</t>
-  </si>
-  <si>
-    <t>http://standards.digital.health.nz/fhir/CodeSystem/nzinfosource</t>
-  </si>
-  <si>
     <t>http://standards.digital.health.nz/fhir/ValueSet/nzinfosource</t>
+  </si>
+  <si>
+    <t>Infosource</t>
+  </si>
+  <si>
+    <t>https://standards.digital.health.nz/fhir/cs/nzinfosource</t>
   </si>
 </sst>
 </file>
@@ -577,7 +574,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F1" s="7"/>
     </row>
@@ -599,19 +596,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -620,10 +617,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -632,10 +629,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -650,78 +647,78 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -738,20 +735,20 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -799,7 +796,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://standards.digital.health.nz/fhir/ValueSet/nzinfosource" xr:uid="{7D2A13D8-2863-504B-B69C-D990F48569CE}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://standards.digital.health.nz/fhir/CodeSystem/nzinfosource" xr:uid="{30BCDE3B-E197-3547-B067-72833E3C28AC}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{30BCDE3B-E197-3547-B067-72833E3C28AC}"/>
     <hyperlink ref="E8" r:id="rId3" xr:uid="{C6734BCB-EEF4-0649-AFA7-678C25AC3B35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codesystems/infosource.xlsx
+++ b/codesystems/infosource.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA650F-F708-254B-83E6-DF5A4DD08BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9D6E11-AD22-C040-A244-2CC2BB9D3F9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18180" yWindow="-19880" windowWidth="27640" windowHeight="16940" xr2:uid="{0A318148-68B7-0C40-BB6B-85AA9C69C951}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>MIGR</t>
   </si>
@@ -42,6 +42,9 @@
     <t>HL7</t>
   </si>
   <si>
+    <t>nzinfosource</t>
+  </si>
+  <si>
     <t>Information source</t>
   </si>
   <si>
@@ -117,13 +120,13 @@
     <t>New Zealand Resident Visa</t>
   </si>
   <si>
+    <t>https://standards.digital.health.nz/fhir/CodeSystem/nzinfosource</t>
+  </si>
+  <si>
+    <t>http://standards.digital.health.nz/fhir/CodeSystem/nzinfosource</t>
+  </si>
+  <si>
     <t>http://standards.digital.health.nz/fhir/ValueSet/nzinfosource</t>
-  </si>
-  <si>
-    <t>Infosource</t>
-  </si>
-  <si>
-    <t>https://standards.digital.health.nz/fhir/cs/nzinfosource</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +587,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7"/>
     </row>
@@ -596,19 +599,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -617,10 +620,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -629,10 +632,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -647,78 +650,78 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -735,20 +738,20 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -796,7 +799,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://standards.digital.health.nz/fhir/ValueSet/nzinfosource" xr:uid="{7D2A13D8-2863-504B-B69C-D990F48569CE}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{30BCDE3B-E197-3547-B067-72833E3C28AC}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://standards.digital.health.nz/fhir/CodeSystem/nzinfosource" xr:uid="{30BCDE3B-E197-3547-B067-72833E3C28AC}"/>
     <hyperlink ref="E8" r:id="rId3" xr:uid="{C6734BCB-EEF4-0649-AFA7-678C25AC3B35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
